--- a/fechamento_2021/fechamento_janeiro/NegativoJaneiro.xlsx
+++ b/fechamento_2021/fechamento_janeiro/NegativoJaneiro.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\UiPath\rpa_esus_edge\fechamento_2021\fechamento_janeiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D56BD8-4304-41E2-9CE0-FF783A785E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E236A1-D00C-4C15-81A3-C732C2C2EE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{15DF5FA1-43CE-416A-A181-FE7BBE7EB99D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -635,7 +635,7 @@
   <dimension ref="A1:BI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,16 +890,16 @@
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>312163017215</v>
+        <v>312163040545</v>
       </c>
       <c r="B2" s="2">
         <v>44226</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2">
-        <v>33369</v>
+        <v>31945</v>
       </c>
       <c r="F2" t="s">
         <v>62</v>
@@ -928,16 +928,16 @@
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>312163039222</v>
+        <v>312163041720</v>
       </c>
       <c r="B3" s="2">
         <v>44226</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2">
-        <v>32498</v>
+        <v>32398</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -966,16 +966,16 @@
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>312163039929</v>
+        <v>312163017215</v>
       </c>
       <c r="B4" s="2">
         <v>44226</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2">
-        <v>34320</v>
+        <v>33369</v>
       </c>
       <c r="F4" t="s">
         <v>62</v>
@@ -1004,19 +1004,31 @@
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>312163040254</v>
+        <v>352158267254</v>
       </c>
       <c r="B5" s="2">
-        <v>44226</v>
+        <v>44211</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2">
-        <v>34198</v>
+        <v>35208</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>76</v>
+      </c>
+      <c r="G5">
+        <v>2101642915</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44211</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="2">
+        <v>44211</v>
       </c>
       <c r="K5" t="s">
         <v>63</v>
@@ -1030,11 +1042,17 @@
       <c r="AM5" t="s">
         <v>65</v>
       </c>
+      <c r="AN5" s="2">
+        <v>44211</v>
+      </c>
       <c r="AO5" t="s">
         <v>63</v>
       </c>
+      <c r="BG5" t="s">
+        <v>75</v>
+      </c>
       <c r="BH5" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="BI5" t="s">
         <v>67</v>
@@ -1042,16 +1060,16 @@
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>312163040545</v>
+        <v>312163040254</v>
       </c>
       <c r="B6" s="2">
         <v>44226</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2">
-        <v>31945</v>
+        <v>34198</v>
       </c>
       <c r="F6" t="s">
         <v>62</v>
@@ -1080,16 +1098,16 @@
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>312163041720</v>
+        <v>312163039222</v>
       </c>
       <c r="B7" s="2">
         <v>44226</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2">
-        <v>32398</v>
+        <v>32498</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -1156,16 +1174,16 @@
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>312163043276</v>
+        <v>312163039929</v>
       </c>
       <c r="B9" s="2">
         <v>44226</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2">
-        <v>22428</v>
+        <v>34320</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1194,52 +1212,40 @@
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>352158267254</v>
+        <v>352158799219</v>
       </c>
       <c r="B10" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2">
-        <v>35208</v>
+        <v>28096</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G10">
-        <v>2101642915</v>
+        <v>2101621129</v>
       </c>
       <c r="H10" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="I10" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="2">
-        <v>44211</v>
-      </c>
-      <c r="K10" t="s">
-        <v>63</v>
-      </c>
       <c r="L10" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s">
         <v>65</v>
       </c>
-      <c r="AN10" s="2">
-        <v>44211</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>63</v>
-      </c>
       <c r="BG10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="BH10" t="s">
         <v>78</v>
@@ -1250,49 +1256,46 @@
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>352158799219</v>
+        <v>312163043276</v>
       </c>
       <c r="B11" s="2">
-        <v>44212</v>
+        <v>44226</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2">
-        <v>28096</v>
+        <v>22428</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11">
-        <v>2101621129</v>
-      </c>
-      <c r="H11" s="2">
-        <v>44210</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
       </c>
       <c r="L11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="AL11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="AM11" t="s">
         <v>65</v>
       </c>
-      <c r="BG11" t="s">
-        <v>79</v>
+      <c r="AO11" t="s">
+        <v>63</v>
       </c>
       <c r="BH11" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="BI11" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BI11">
+    <sortCondition ref="C2:C11"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>